--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1829300.600189102</v>
+        <v>-1832039.030391164</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>50.17485373691576</v>
       </c>
       <c r="V2" t="n">
-        <v>88.8864787567163</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>194.7968159704454</v>
+        <v>53.70305490429476</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>27.70268443917146</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>3.768280196174425</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>236.0196141228726</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.1035376802898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>246.7028488292429</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>21.01239995027874</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>160.4167363437991</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>89.54648972903878</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766842</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>211.8835657758636</v>
       </c>
     </row>
     <row r="14">
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,16 +2056,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>251.4415958840106</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.25298866282583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652662</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,7 +3244,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
         <v>262.2383508445512</v>
@@ -3253,7 +3253,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1644.41037963171</v>
+        <v>1501.728567022732</v>
       </c>
       <c r="C2" t="n">
-        <v>1644.41037963171</v>
+        <v>1132.766050082321</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.14468102496</v>
+        <v>774.50035147557</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.14468102496</v>
+        <v>774.50035147557</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353522</v>
+        <v>363.5144466859625</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272269</v>
+        <v>363.5144466859625</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870229</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520177</v>
+        <v>488.6685928117854</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719116</v>
+        <v>726.2913740299774</v>
       </c>
       <c r="M2" t="n">
-        <v>1224.788511629514</v>
+        <v>1022.36194058758</v>
       </c>
       <c r="N2" t="n">
-        <v>1865.811721249408</v>
+        <v>1327.837046823166</v>
       </c>
       <c r="O2" t="n">
-        <v>2140.927940566041</v>
+        <v>1968.86025644306</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.61872114746</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466515</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.334033584003</v>
+        <v>2185.560109636417</v>
       </c>
       <c r="V2" t="n">
-        <v>2034.549711607522</v>
+        <v>1854.497222292846</v>
       </c>
       <c r="W2" t="n">
-        <v>2034.549711607522</v>
+        <v>1501.728567022732</v>
       </c>
       <c r="X2" t="n">
-        <v>2034.549711607522</v>
+        <v>1501.728567022732</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.41037963171</v>
+        <v>1501.728567022732</v>
       </c>
     </row>
     <row r="3">
@@ -4395,37 +4395,37 @@
         <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884146</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093824</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995046</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202291</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234842</v>
+        <v>794.7800573025183</v>
       </c>
       <c r="M3" t="n">
-        <v>1416.284499143378</v>
+        <v>1435.803266922412</v>
       </c>
       <c r="N3" t="n">
-        <v>1723.657007090155</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925576</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.6557187433658</v>
+        <v>371.8417162791105</v>
       </c>
       <c r="C4" t="n">
-        <v>496.7195358154589</v>
+        <v>371.8417162791105</v>
       </c>
       <c r="D4" t="n">
-        <v>346.6028964031232</v>
+        <v>371.8417162791105</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6898028207301</v>
+        <v>371.8417162791105</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>371.8417162791105</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361121</v>
+        <v>1056.517821155236</v>
       </c>
       <c r="W4" t="n">
-        <v>1114.437848784913</v>
+        <v>1002.272311150898</v>
       </c>
       <c r="X4" t="n">
-        <v>886.4482978868959</v>
+        <v>774.2827602528804</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.6557187433658</v>
+        <v>553.4901811093503</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1487.227794551095</v>
+        <v>1129.422051487368</v>
       </c>
       <c r="C5" t="n">
-        <v>1118.265277610684</v>
+        <v>760.4595345469561</v>
       </c>
       <c r="D5" t="n">
-        <v>759.9995790039331</v>
+        <v>402.1938359402056</v>
       </c>
       <c r="E5" t="n">
-        <v>374.211326405689</v>
+        <v>402.1938359402056</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2658256564855</v>
+        <v>395.2483351910021</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>383.6068974315381</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>79.78236485733635</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.236357502977</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.173470159406</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W5" t="n">
-        <v>1877.367126526907</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X5" t="n">
-        <v>1877.367126526907</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="Y5" t="n">
-        <v>1487.227794551095</v>
+        <v>1516.021891551489</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349159</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127241</v>
+        <v>1445.313588985732</v>
       </c>
       <c r="N6" t="n">
-        <v>1627.746635452984</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
         <v>2536.977948259489</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.7657712454554</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="C7" t="n">
-        <v>349.8295883175485</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="D7" t="n">
-        <v>199.7129489052128</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4753,22 +4753,22 @@
         <v>1348.412641916872</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="U7" t="n">
-        <v>1125.478067458854</v>
+        <v>1110.008991287708</v>
       </c>
       <c r="V7" t="n">
-        <v>1125.478067458854</v>
+        <v>855.3245030818213</v>
       </c>
       <c r="W7" t="n">
-        <v>1125.478067458854</v>
+        <v>855.3245030818213</v>
       </c>
       <c r="X7" t="n">
-        <v>897.4885165608364</v>
+        <v>855.3245030818213</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.4142360756952</v>
+        <v>634.5319239382911</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>912.4625122930327</v>
+        <v>1127.66239870951</v>
       </c>
       <c r="C8" t="n">
-        <v>912.4625122930327</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="D8" t="n">
-        <v>554.1968136862822</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="E8" t="n">
-        <v>554.1968136862822</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
         <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.528110618234</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="W8" t="n">
-        <v>1672.528110618234</v>
+        <v>1904.401570749444</v>
       </c>
       <c r="X8" t="n">
-        <v>1299.062352357154</v>
+        <v>1904.401570749444</v>
       </c>
       <c r="Y8" t="n">
-        <v>1299.062352357154</v>
+        <v>1514.262238773632</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682815</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
         <v>896.1151064594483</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.7958307740689</v>
+        <v>530.6862392510986</v>
       </c>
       <c r="C10" t="n">
-        <v>620.859647846162</v>
+        <v>361.7500563231918</v>
       </c>
       <c r="D10" t="n">
-        <v>620.859647846162</v>
+        <v>361.7500563231918</v>
       </c>
       <c r="E10" t="n">
-        <v>620.859647846162</v>
+        <v>213.8369627407986</v>
       </c>
       <c r="F10" t="n">
-        <v>473.9697003482516</v>
+        <v>213.8369627407986</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
@@ -4987,25 +4987,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.049095695859</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.931318706258</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2468305003707</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2468305003707</v>
+        <v>1161.116834122886</v>
       </c>
       <c r="X10" t="n">
-        <v>789.7958307740689</v>
+        <v>933.1272832248685</v>
       </c>
       <c r="Y10" t="n">
-        <v>789.7958307740689</v>
+        <v>712.3347040813384</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400699</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,10 +5285,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5504,61 +5504,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,7 +6403,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345484</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384028</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7120,22 +7120,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656818</v>
@@ -7318,7 +7318,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7327,10 +7327,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7979,28 +7979,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>203.0038963229966</v>
       </c>
       <c r="L2" t="n">
-        <v>407.47518020374</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.937478165969</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.603020508343</v>
       </c>
       <c r="P2" t="n">
-        <v>108.4711649417335</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660675</v>
+        <v>380.892604166067</v>
       </c>
       <c r="N3" t="n">
-        <v>22.26125001358048</v>
+        <v>186.3303545049301</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>274.5176649421944</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>220.129715665465</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
-        <v>35.38972270187077</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>312.426902773627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>203.7038667311515</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>200.9295992653135</v>
       </c>
       <c r="V2" t="n">
-        <v>238.8657797134186</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194363</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>6.701087576231231</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>34.74287850523359</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.57899151911147</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -26323,7 +26323,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
         <v>100893.3249612508</v>
@@ -26335,22 +26335,22 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="L2" t="n">
         <v>102630.2212330354</v>
       </c>
-      <c r="L2" t="n">
-        <v>102630.2212330355</v>
-      </c>
       <c r="M2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898933</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>188841.7348196798</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-11</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042352</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61714.61558823356</v>
+        <v>61714.61558823341</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695106</v>
-      </c>
       <c r="H4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="J4" t="n">
+        <v>14278.33979478852</v>
+      </c>
+      <c r="K4" t="n">
         <v>14278.33979478853</v>
       </c>
-      <c r="K4" t="n">
-        <v>14278.33979478855</v>
-      </c>
       <c r="L4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478854</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.3397947885</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
         <v>14278.33979478851</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478853</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1009590.34845703</v>
+        <v>-1010019.90732362</v>
       </c>
       <c r="C6" t="n">
-        <v>-292681.9826436155</v>
+        <v>-292681.9826436144</v>
       </c>
       <c r="D6" t="n">
-        <v>-119917.6228537222</v>
+        <v>-119917.6228537221</v>
       </c>
       <c r="E6" t="n">
-        <v>-507405.5531401022</v>
+        <v>-507440.2910655378</v>
       </c>
       <c r="F6" t="n">
-        <v>-6516.685394351414</v>
+        <v>-6551.423319787064</v>
       </c>
       <c r="G6" t="n">
-        <v>-6516.685394351443</v>
+        <v>-6551.423319787078</v>
       </c>
       <c r="H6" t="n">
-        <v>-6516.685394351429</v>
+        <v>-6551.423319787093</v>
       </c>
       <c r="I6" t="n">
-        <v>-6516.6853943514</v>
+        <v>-6551.423319787049</v>
       </c>
       <c r="J6" t="n">
-        <v>-203653.9692353481</v>
+        <v>-203653.9692353483</v>
       </c>
       <c r="K6" t="n">
-        <v>-14812.23441566853</v>
+        <v>-14812.23441566851</v>
       </c>
       <c r="L6" t="n">
-        <v>-14812.23441566844</v>
+        <v>-14812.23441566854</v>
       </c>
       <c r="M6" t="n">
         <v>-145696.6913199036</v>
       </c>
       <c r="N6" t="n">
-        <v>-14812.23441566846</v>
+        <v>-14812.23441566848</v>
       </c>
       <c r="O6" t="n">
-        <v>-34239.95240930027</v>
+        <v>-34239.95240930021</v>
       </c>
       <c r="P6" t="n">
-        <v>-14812.23441566847</v>
+        <v>-14812.23441566856</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522348</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>69.50346729863475</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>208.5838719638927</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27594,10 +27594,10 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>91.72618236614557</v>
+        <v>232.8199434322962</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>37.13288100850827</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>345.4726885212386</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>50.20698509683299</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>23.48111567180499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>118.5700429417647</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>385.8636457914327</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>5.879690506930388</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>136.1631656599984</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="29">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,28 +32549,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>388.514013929771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>519.7862086120942</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,10 +33509,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.8483515800032</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161564</v>
+        <v>366.4332014391537</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352464</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410124</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269027</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P2" t="n">
-        <v>310.7987682640596</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586409</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138492</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932399</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517966</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.548298084096</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>310.4772807543204</v>
+        <v>474.5463852456706</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580004</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289993</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686939</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34951,7 +34951,7 @@
         <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.007018751006</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342475</v>
@@ -35015,13 +35015,13 @@
         <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>574.832765059684</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>590.1356646476119</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
@@ -35033,7 +35033,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>25.33729477225502</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>335.7048228193603</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35665,7 +35665,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>245.9177694853266</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>388.4444965287609</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,10 +37157,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
